--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
   <si>
     <t>Арт.</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>Վաճառքի գին</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -454,6 +457,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -737,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,50 +791,43 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6">
-        <v>18</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="8">
-        <v>6000</v>
-      </c>
-      <c r="H2" s="9">
-        <v>18</v>
-      </c>
-      <c r="I2" s="23">
-        <v>15330</v>
-      </c>
-      <c r="J2" s="22"/>
+      <c r="A2" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>11</v>
@@ -831,19 +836,19 @@
         <v>6000</v>
       </c>
       <c r="H3" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I3" s="23">
-        <v>15420</v>
+        <v>15330</v>
       </c>
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6">
         <v>12</v>
@@ -864,16 +869,16 @@
         <v>24</v>
       </c>
       <c r="I4" s="23">
-        <v>820</v>
+        <v>15420</v>
       </c>
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6">
         <v>12</v>
@@ -891,28 +896,28 @@
         <v>6000</v>
       </c>
       <c r="H5" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I5" s="23">
-        <v>1450</v>
+        <v>820</v>
       </c>
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>11</v>
@@ -921,28 +926,28 @@
         <v>6000</v>
       </c>
       <c r="H6" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I6" s="23">
-        <v>1520</v>
+        <v>1450</v>
       </c>
       <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>11</v>
@@ -951,170 +956,170 @@
         <v>6000</v>
       </c>
       <c r="H7" s="9">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="I7" s="23">
-        <v>3400</v>
+        <v>1520</v>
       </c>
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>4</v>
-      </c>
       <c r="E8" s="8">
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G8" s="8">
-        <v>10</v>
+        <v>6000</v>
       </c>
       <c r="H8" s="9">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="I8" s="23">
-        <v>1150</v>
+        <v>3400</v>
       </c>
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="8">
+        <v>10</v>
+      </c>
+      <c r="H9" s="9">
+        <v>28</v>
+      </c>
+      <c r="I9" s="23">
+        <v>1150</v>
+      </c>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9">
-        <v>17</v>
-      </c>
-      <c r="I9" s="23">
-        <v>3000</v>
-      </c>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9">
+        <v>17</v>
+      </c>
+      <c r="I10" s="23">
+        <v>3000</v>
+      </c>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6">
         <v>10</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="D11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="8">
         <v>10</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H11" s="9">
         <v>30</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I11" s="23">
         <v>2000</v>
-      </c>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6">
-        <v>24</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="8">
-        <v>4</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="8">
-        <v>6000</v>
-      </c>
-      <c r="H11" s="9">
-        <v>192</v>
-      </c>
-      <c r="I11" s="23">
-        <v>3050</v>
       </c>
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="6">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>4</v>
-      </c>
       <c r="E12" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G12" s="8">
-        <v>10</v>
+        <v>6000</v>
       </c>
       <c r="H12" s="9">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="I12" s="23">
-        <v>1220</v>
+        <v>3050</v>
       </c>
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="6">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>4</v>
@@ -1126,80 +1131,80 @@
         <v>24</v>
       </c>
       <c r="G13" s="8">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H13" s="9">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I13" s="23">
-        <v>870</v>
+        <v>1220</v>
       </c>
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="G14" s="8">
+        <v>40</v>
+      </c>
       <c r="H14" s="9">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="I14" s="23">
-        <v>73000</v>
+        <v>870</v>
       </c>
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="6">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E15" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="8">
-        <v>200</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G15" s="8"/>
       <c r="H15" s="9">
-        <v>1600</v>
+        <v>2</v>
       </c>
       <c r="I15" s="23">
-        <v>290</v>
+        <v>73000</v>
       </c>
       <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="6">
         <v>200</v>
@@ -1217,22 +1222,22 @@
         <v>200</v>
       </c>
       <c r="H16" s="9">
-        <v>382</v>
+        <v>1600</v>
       </c>
       <c r="I16" s="23">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="6">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>10</v>
@@ -1244,25 +1249,25 @@
         <v>24</v>
       </c>
       <c r="G17" s="8">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H17" s="9">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="I17" s="23">
-        <v>400</v>
+        <v>190</v>
       </c>
       <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>10</v>
@@ -1274,25 +1279,25 @@
         <v>24</v>
       </c>
       <c r="G18" s="8">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H18" s="9">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="I18" s="23">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="J18" s="22"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>10</v>
@@ -1304,61 +1309,61 @@
         <v>24</v>
       </c>
       <c r="G19" s="8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H19" s="9">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="I19" s="23">
-        <v>570</v>
+        <v>480</v>
       </c>
       <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="6">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E20" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="8">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H20" s="9">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="I20" s="23">
-        <v>2150</v>
+        <v>570</v>
       </c>
       <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>24</v>
@@ -1367,139 +1372,139 @@
         <v>4</v>
       </c>
       <c r="H21" s="9">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="I21" s="23">
-        <v>2270</v>
+        <v>2150</v>
       </c>
       <c r="J21" s="22"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="6">
+        <v>4</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="8">
+        <v>4</v>
+      </c>
+      <c r="H22" s="9">
+        <v>8</v>
+      </c>
+      <c r="I22" s="23">
+        <v>2270</v>
+      </c>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C23" s="6">
         <v>6</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="8">
+      <c r="D23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="8">
         <v>3</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="F23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="8">
         <v>2</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H23" s="9">
         <v>6</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I23" s="23">
         <v>1820</v>
       </c>
-      <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C24" s="6">
         <v>40</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="8">
-        <v>1</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="D24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="8">
         <v>40</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H24" s="9">
         <v>113</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I24" s="23">
         <v>1730</v>
       </c>
-      <c r="J23" s="22"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B25" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C25" s="14">
         <v>300</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="15">
+      <c r="D25" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="15">
         <v>3</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="15">
-        <v>100</v>
-      </c>
-      <c r="H24" s="16">
+      <c r="F25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="15">
+        <v>100</v>
+      </c>
+      <c r="H25" s="16">
         <v>1247</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I25" s="23">
         <v>50</v>
-      </c>
-      <c r="J24" s="22"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="6">
-        <v>100</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="8">
-        <v>1</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="8">
-        <v>100</v>
-      </c>
-      <c r="H25" s="9">
-        <v>370</v>
-      </c>
-      <c r="I25" s="23">
-        <v>160</v>
       </c>
       <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="6">
         <v>100</v>
@@ -1517,79 +1522,79 @@
         <v>100</v>
       </c>
       <c r="H26" s="9">
-        <v>900</v>
+        <v>370</v>
       </c>
       <c r="I26" s="23">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="6">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="8">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H27" s="9">
-        <v>96</v>
+        <v>900</v>
       </c>
       <c r="I27" s="23">
-        <v>275</v>
+        <v>50</v>
       </c>
       <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="6">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E28" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G28" s="8">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H28" s="9">
-        <v>1072</v>
+        <v>96</v>
       </c>
       <c r="I28" s="23">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" s="6">
         <v>100</v>
@@ -1607,19 +1612,19 @@
         <v>100</v>
       </c>
       <c r="H29" s="9">
-        <v>406</v>
+        <v>1072</v>
       </c>
       <c r="I29" s="23">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="6">
         <v>100</v>
@@ -1637,19 +1642,19 @@
         <v>100</v>
       </c>
       <c r="H30" s="9">
-        <v>593</v>
+        <v>406</v>
       </c>
       <c r="I30" s="23">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="J30" s="22"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" s="6">
         <v>100</v>
@@ -1667,19 +1672,19 @@
         <v>100</v>
       </c>
       <c r="H31" s="9">
-        <v>508</v>
+        <v>593</v>
       </c>
       <c r="I31" s="23">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J31" s="22"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" s="6">
         <v>100</v>
@@ -1697,22 +1702,22 @@
         <v>100</v>
       </c>
       <c r="H32" s="9">
-        <v>191</v>
+        <v>508</v>
       </c>
       <c r="I32" s="23">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="J32" s="22"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" s="6">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>4</v>
@@ -1727,22 +1732,22 @@
         <v>100</v>
       </c>
       <c r="H33" s="9">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="I33" s="23">
-        <v>730</v>
+        <v>220</v>
       </c>
       <c r="J33" s="22"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34" s="6">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>4</v>
@@ -1754,73 +1759,103 @@
         <v>24</v>
       </c>
       <c r="G34" s="8">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H34" s="9">
-        <v>202</v>
+        <v>88</v>
       </c>
       <c r="I34" s="23">
-        <v>400</v>
+        <v>730</v>
       </c>
       <c r="J34" s="22"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="6">
+        <v>80</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="8">
+        <v>80</v>
+      </c>
+      <c r="H35" s="9">
+        <v>202</v>
+      </c>
+      <c r="I35" s="23">
+        <v>400</v>
+      </c>
+      <c r="J35" s="22"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="6">
-        <v>100</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="8">
-        <v>1</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="8">
-        <v>100</v>
-      </c>
-      <c r="H35" s="9">
+      <c r="C36" s="6">
+        <v>100</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="8">
+        <v>100</v>
+      </c>
+      <c r="H36" s="9">
         <v>674</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I36" s="23">
         <v>280</v>
       </c>
-      <c r="J35" s="22"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="J36" s="22"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B37" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="19">
-        <v>1</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="20">
-        <v>1</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="21">
-        <v>4</v>
-      </c>
-      <c r="I36" s="23">
+      <c r="C37" s="19">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="20">
+        <v>1</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="21">
+        <v>4</v>
+      </c>
+      <c r="I37" s="23">
         <v>4000</v>
       </c>
-      <c r="J36" s="22"/>
+      <c r="J37" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
